--- a/GroupBProject/StaticFiles/Sample.xlsx
+++ b/GroupBProject/StaticFiles/Sample.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -23,22 +26,16 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Ashiq</t>
+    <t>Designation</t>
   </si>
   <si>
-    <t>30</t>
+    <t>09</t>
   </si>
   <si>
-    <t>1990</t>
+    <t>Athitra</t>
   </si>
   <si>
-    <t>Rinshad</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1997</t>
+    <t>HR</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -111,27 +108,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C2" s="0">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0">
+        <v>44642.701337638886</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
